--- a/Test data/TC07_AddVaccine.xlsx
+++ b/Test data/TC07_AddVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF060B-AC96-479B-B9C9-599D3316C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFD39D-BEC6-4296-8AEA-8C3857949598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="153">
   <si>
     <t>TDID</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>ราคาต่อเข็มต้องมีค่าไม่เกิน 5000</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -908,18 +914,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
@@ -930,10 +937,12 @@
     <col min="14" max="14" width="12.36328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="84.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="22.1796875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.08984375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:20" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -986,10 +995,16 @@
         <v>1</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -1036,8 +1051,10 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
@@ -1086,8 +1103,10 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1136,8 +1155,10 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -1186,8 +1207,10 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -1236,8 +1259,10 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -1284,8 +1309,10 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -1334,8 +1361,10 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
@@ -1384,8 +1413,10 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -1434,8 +1465,10 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1482,8 +1515,10 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1532,8 +1567,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1582,8 +1619,10 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1630,8 +1669,10 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1680,8 +1721,10 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1730,8 +1773,10 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -1778,8 +1823,10 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1828,8 +1875,10 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1878,8 +1927,10 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1928,8 +1979,10 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1978,8 +2031,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -2028,8 +2083,10 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2078,8 +2135,10 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2126,8 +2185,10 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
@@ -2176,8 +2237,10 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2226,8 +2289,10 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2276,8 +2341,10 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -2326,8 +2393,10 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2374,8 +2443,10 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -2424,8 +2495,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -2474,8 +2547,10 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -2524,8 +2599,10 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
@@ -2574,8 +2651,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
@@ -2622,8 +2701,10 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -2672,8 +2753,10 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
@@ -2722,8 +2805,10 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -2772,8 +2857,10 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -2822,8 +2909,10 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
@@ -2872,8 +2961,10 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -2920,8 +3011,10 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -2970,8 +3063,10 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -3020,8 +3115,10 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3070,8 +3167,10 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -3120,8 +3219,10 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -3168,8 +3269,10 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -3218,8 +3321,10 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
@@ -3268,8 +3373,10 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
         <v>58</v>
       </c>
@@ -3318,8 +3425,10 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
@@ -3368,8 +3477,10 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -3418,8 +3529,10 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
@@ -3468,8 +3581,10 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
@@ -3518,8 +3633,10 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
@@ -3568,8 +3685,10 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
@@ -3618,6 +3737,8 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC07_AddVaccine.xlsx
+++ b/Test data/TC07_AddVaccine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFD39D-BEC6-4296-8AEA-8C3857949598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB97B2A-5CBA-4C86-BEE4-8464B7FBF8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="156">
   <si>
     <t>TDID</t>
   </si>
@@ -323,21 +323,12 @@
     <t>วันในอนาคต</t>
   </si>
   <si>
-    <t>วันที่น้อยกว่าวันที่ผลิต</t>
-  </si>
-  <si>
     <t>วันที่มากกว่าวันที่หมดอายุ</t>
   </si>
   <si>
-    <t>วันปัจจุบันหรือวันในอดีต และเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
     <t>กรุณาเลือกวันที่นำเข้า</t>
   </si>
   <si>
-    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
     <t>วันปัจจุบัน</t>
   </si>
   <si>
@@ -492,6 +483,24 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันที่น้อยกว่าวันที่ผลิต </t>
+  </si>
+  <si>
+    <t>วันเดียวกันกับวันที่ผลิต</t>
+  </si>
+  <si>
+    <t>วันเดียวกันกับวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>วันที่มากกว่าวันที่ผลิตและน้อยกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>TD54</t>
+  </si>
+  <si>
+    <t>วันที่นำเข้าต้องเป็นวันที่มากกว่าวันที่ผลิตและน้อยกว่าวันที่หมดอายุ</t>
   </si>
 </sst>
 </file>
@@ -914,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -927,18 +936,16 @@
     <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="46.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7265625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="84.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="22.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="76.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.6328125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -995,10 +1002,10 @@
         <v>1</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>75</v>
@@ -1019,10 +1026,10 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>95</v>
@@ -1031,19 +1038,19 @@
         <v>71</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -1071,10 +1078,10 @@
         <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>95</v>
@@ -1083,19 +1090,19 @@
         <v>71</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>93</v>
@@ -1123,10 +1130,10 @@
         <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>95</v>
@@ -1135,19 +1142,19 @@
         <v>71</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>93</v>
@@ -1175,10 +1182,10 @@
         <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>95</v>
@@ -1187,19 +1194,19 @@
         <v>71</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>94</v>
@@ -1227,10 +1234,10 @@
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>95</v>
@@ -1239,19 +1246,19 @@
         <v>71</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>94</v>
@@ -1276,11 +1283,11 @@
         <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>95</v>
@@ -1289,22 +1296,22 @@
         <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1326,13 +1333,13 @@
         <v>67</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>95</v>
@@ -1341,22 +1348,22 @@
         <v>71</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1378,13 +1385,13 @@
         <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>95</v>
@@ -1393,22 +1400,22 @@
         <v>71</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1430,13 +1437,13 @@
         <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>95</v>
@@ -1445,22 +1452,22 @@
         <v>71</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1482,12 +1489,14 @@
         <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
@@ -1495,22 +1504,22 @@
         <v>71</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1532,14 +1541,12 @@
         <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
@@ -1547,22 +1554,22 @@
         <v>71</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1584,14 +1591,14 @@
         <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
@@ -1599,22 +1606,22 @@
         <v>71</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1636,35 +1643,37 @@
         <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1686,37 +1695,35 @@
         <v>67</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1738,37 +1745,37 @@
         <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="I16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1790,35 +1797,37 @@
         <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1840,37 +1849,35 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1892,37 +1899,37 @@
         <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1944,37 +1951,37 @@
         <v>67</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1996,37 +2003,37 @@
         <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2048,37 +2055,37 @@
         <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2100,37 +2107,37 @@
         <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2152,35 +2159,37 @@
         <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2202,13 +2211,13 @@
         <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>95</v>
@@ -2216,23 +2225,21 @@
       <c r="I25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2254,13 +2261,13 @@
         <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>95</v>
@@ -2269,22 +2276,22 @@
         <v>71</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2306,13 +2313,13 @@
         <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>95</v>
@@ -2321,22 +2328,22 @@
         <v>71</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2358,13 +2365,13 @@
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>95</v>
@@ -2373,22 +2380,22 @@
         <v>71</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2410,13 +2417,13 @@
         <v>67</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>95</v>
@@ -2424,21 +2431,23 @@
       <c r="I29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="7"/>
+      <c r="J29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="L29" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2460,13 +2469,13 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>95</v>
@@ -2475,22 +2484,20 @@
         <v>71</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2512,13 +2519,13 @@
         <v>67</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>95</v>
@@ -2527,22 +2534,22 @@
         <v>71</v>
       </c>
       <c r="J31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2564,13 +2571,13 @@
         <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>95</v>
@@ -2579,22 +2586,22 @@
         <v>71</v>
       </c>
       <c r="J32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2616,13 +2623,13 @@
         <v>67</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>95</v>
@@ -2631,22 +2638,22 @@
         <v>71</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2668,13 +2675,13 @@
         <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>95</v>
@@ -2683,20 +2690,22 @@
         <v>71</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="M34" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -2718,13 +2727,13 @@
         <v>67</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>95</v>
@@ -2733,22 +2742,20 @@
         <v>71</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>124</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="L35" s="7"/>
       <c r="M35" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2770,13 +2777,13 @@
         <v>67</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>95</v>
@@ -2785,22 +2792,22 @@
         <v>71</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2822,13 +2829,13 @@
         <v>67</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>95</v>
@@ -2837,22 +2844,22 @@
         <v>71</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2874,13 +2881,13 @@
         <v>67</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>95</v>
@@ -2889,22 +2896,22 @@
         <v>71</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2926,13 +2933,13 @@
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>95</v>
@@ -2941,22 +2948,22 @@
         <v>71</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2978,13 +2985,13 @@
         <v>67</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>95</v>
@@ -2993,20 +3000,22 @@
         <v>71</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M40" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="N40" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -3028,13 +3037,13 @@
         <v>67</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>95</v>
@@ -3043,22 +3052,20 @@
         <v>71</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M41" s="7"/>
       <c r="N41" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -3080,13 +3087,13 @@
         <v>67</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>95</v>
@@ -3095,22 +3102,22 @@
         <v>71</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="N42" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -3132,13 +3139,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>95</v>
@@ -3147,22 +3154,22 @@
         <v>71</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -3184,13 +3191,13 @@
         <v>67</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>95</v>
@@ -3199,22 +3206,22 @@
         <v>71</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -3236,13 +3243,13 @@
         <v>67</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>95</v>
@@ -3251,20 +3258,22 @@
         <v>71</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N45" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="O45" s="4" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -3286,13 +3295,13 @@
         <v>67</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>95</v>
@@ -3301,22 +3310,20 @@
         <v>71</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N46" s="7"/>
       <c r="O46" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -3338,13 +3345,13 @@
         <v>67</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>95</v>
@@ -3353,22 +3360,22 @@
         <v>71</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -3390,13 +3397,13 @@
         <v>67</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>95</v>
@@ -3405,22 +3412,22 @@
         <v>71</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -3442,13 +3449,13 @@
         <v>67</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>95</v>
@@ -3457,22 +3464,22 @@
         <v>71</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="O49" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -3494,13 +3501,13 @@
         <v>67</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>95</v>
@@ -3509,22 +3516,22 @@
         <v>71</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -3549,16 +3556,16 @@
         <v>89</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>89</v>
@@ -3567,16 +3574,16 @@
         <v>89</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -3598,34 +3605,34 @@
         <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>8</v>
@@ -3650,34 +3657,34 @@
         <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>8</v>
@@ -3702,34 +3709,34 @@
         <v>67</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>8</v>
@@ -3739,6 +3746,58 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
